--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H2">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I2">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J2">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N2">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q2">
-        <v>0.5099136504295555</v>
+        <v>0.180398906378</v>
       </c>
       <c r="R2">
-        <v>4.589222853866</v>
+        <v>1.623590157402</v>
       </c>
       <c r="S2">
-        <v>0.03863453822877832</v>
+        <v>0.01164339319423898</v>
       </c>
       <c r="T2">
-        <v>0.03863453822877833</v>
+        <v>0.01164339319423898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H3">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I3">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J3">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.055252</v>
       </c>
       <c r="O3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q3">
-        <v>0.1394844991124445</v>
+        <v>0.03696453955822222</v>
       </c>
       <c r="R3">
-        <v>1.255360492012</v>
+        <v>0.332680856024</v>
       </c>
       <c r="S3">
-        <v>0.0105682976102759</v>
+        <v>0.002385783134508345</v>
       </c>
       <c r="T3">
-        <v>0.0105682976102759</v>
+        <v>0.002385783134508345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H4">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I4">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J4">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N4">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O4">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P4">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q4">
-        <v>0.4335812416769999</v>
+        <v>0.1762916029837777</v>
       </c>
       <c r="R4">
-        <v>3.902231175092999</v>
+        <v>1.586624426854</v>
       </c>
       <c r="S4">
-        <v>0.0328510739862325</v>
+        <v>0.01137829763824511</v>
       </c>
       <c r="T4">
-        <v>0.03285107398623251</v>
+        <v>0.01137829763824511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H5">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I5">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J5">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N5">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q5">
-        <v>0.2365841640507778</v>
+        <v>0.07602539627088888</v>
       </c>
       <c r="R5">
-        <v>2.129257476457</v>
+        <v>0.6842285664379999</v>
       </c>
       <c r="S5">
-        <v>0.01792523091437825</v>
+        <v>0.004906867781531854</v>
       </c>
       <c r="T5">
-        <v>0.01792523091437826</v>
+        <v>0.004906867781531853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I6">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J6">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N6">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q6">
-        <v>2.832670540102666</v>
+        <v>3.781585938845999</v>
       </c>
       <c r="R6">
-        <v>25.494034860924</v>
+        <v>34.034273449614</v>
       </c>
       <c r="S6">
-        <v>0.2146224526033738</v>
+        <v>0.2440729429452847</v>
       </c>
       <c r="T6">
-        <v>0.2146224526033738</v>
+        <v>0.2440729429452847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I7">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J7">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.055252</v>
       </c>
       <c r="O7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q7">
         <v>0.7748638050853334</v>
@@ -883,10 +883,10 @@
         <v>6.973774245768</v>
       </c>
       <c r="S7">
-        <v>0.05870897018435805</v>
+        <v>0.05001163330607058</v>
       </c>
       <c r="T7">
-        <v>0.05870897018435806</v>
+        <v>0.05001163330607058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I8">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J8">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N8">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O8">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P8">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q8">
-        <v>2.408629008078</v>
+        <v>3.695487186508666</v>
       </c>
       <c r="R8">
-        <v>21.677661072702</v>
+        <v>33.25938467857799</v>
       </c>
       <c r="S8">
-        <v>0.182494172127266</v>
+        <v>0.238515915759674</v>
       </c>
       <c r="T8">
-        <v>0.1824941721272661</v>
+        <v>0.238515915759674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I9">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J9">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N9">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q9">
-        <v>1.314271526555333</v>
+        <v>1.593671354807333</v>
       </c>
       <c r="R9">
-        <v>11.828443738998</v>
+        <v>14.343042193266</v>
       </c>
       <c r="S9">
-        <v>0.09957818052708042</v>
+        <v>0.1028595049658252</v>
       </c>
       <c r="T9">
-        <v>0.09957818052708045</v>
+        <v>0.1028595049658252</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H10">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N10">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O10">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P10">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q10">
-        <v>1.648444521299333</v>
+        <v>1.659472866454</v>
       </c>
       <c r="R10">
-        <v>14.836000691694</v>
+        <v>14.935255798086</v>
       </c>
       <c r="S10">
-        <v>0.1248974072816229</v>
+        <v>0.1071064978565253</v>
       </c>
       <c r="T10">
-        <v>0.1248974072816229</v>
+        <v>0.1071064978565253</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H11">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.055252</v>
       </c>
       <c r="O11">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P11">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q11">
-        <v>0.4509243048786667</v>
+        <v>0.3400333829591112</v>
       </c>
       <c r="R11">
-        <v>4.058318743908001</v>
+        <v>3.060300446632001</v>
       </c>
       <c r="S11">
-        <v>0.03416510281778951</v>
+        <v>0.0219465985490198</v>
       </c>
       <c r="T11">
-        <v>0.03416510281778951</v>
+        <v>0.0219465985490198</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H12">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N12">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O12">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P12">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q12">
-        <v>1.401677758143</v>
+        <v>1.621690162146889</v>
       </c>
       <c r="R12">
-        <v>12.615099823287</v>
+        <v>14.595211459322</v>
       </c>
       <c r="S12">
-        <v>0.1062006731645347</v>
+        <v>0.1046679083383185</v>
       </c>
       <c r="T12">
-        <v>0.1062006731645347</v>
+        <v>0.1046679083383185</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H13">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N13">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O13">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P13">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q13">
-        <v>0.7648272775736666</v>
+        <v>0.6993505936704445</v>
       </c>
       <c r="R13">
-        <v>6.883445498163</v>
+        <v>6.294155343034</v>
       </c>
       <c r="S13">
-        <v>0.05794853436251445</v>
+        <v>0.04513782320646307</v>
       </c>
       <c r="T13">
-        <v>0.05794853436251445</v>
+        <v>0.04513782320646306</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H14">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N14">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O14">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P14">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q14">
-        <v>0.1091716565364444</v>
+        <v>0.329484844638</v>
       </c>
       <c r="R14">
-        <v>0.9825449088279999</v>
+        <v>2.965363601742</v>
       </c>
       <c r="S14">
-        <v>0.008271589776824396</v>
+        <v>0.02126576970275262</v>
       </c>
       <c r="T14">
-        <v>0.008271589776824396</v>
+        <v>0.02126576970275261</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H15">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.055252</v>
       </c>
       <c r="O15">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P15">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q15">
-        <v>0.02986339709955556</v>
+        <v>0.06751291245600001</v>
       </c>
       <c r="R15">
-        <v>0.268770573896</v>
+        <v>0.6076162121040001</v>
       </c>
       <c r="S15">
-        <v>0.002262654776768637</v>
+        <v>0.00435745094688283</v>
       </c>
       <c r="T15">
-        <v>0.002262654776768637</v>
+        <v>0.004357450946882828</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H16">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N16">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O16">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P16">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q16">
-        <v>0.09282901596599998</v>
+        <v>0.321983168226</v>
       </c>
       <c r="R16">
-        <v>0.8354611436939998</v>
+        <v>2.897848514034</v>
       </c>
       <c r="S16">
-        <v>0.007033359791519763</v>
+        <v>0.0207815928868586</v>
       </c>
       <c r="T16">
-        <v>0.007033359791519764</v>
+        <v>0.02078159288685859</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H17">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N17">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O17">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P17">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q17">
-        <v>0.05065227235622222</v>
+        <v>0.138854588322</v>
       </c>
       <c r="R17">
-        <v>0.4558704512059999</v>
+        <v>1.249691294898</v>
       </c>
       <c r="S17">
-        <v>0.003837761846682134</v>
+        <v>0.008962019787800639</v>
       </c>
       <c r="T17">
-        <v>0.003837761846682134</v>
+        <v>0.008962019787800637</v>
       </c>
     </row>
   </sheetData>
